--- a/manual/Debug_Environment_Creation.xlsx
+++ b/manual/Debug_Environment_Creation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
   <si>
     <t>Requirement</t>
     <phoneticPr fontId="2"/>
@@ -1252,12 +1252,15 @@
   <si>
     <t>ImportError: cannot import name main</t>
   </si>
+  <si>
+    <t>https://github.com/daisuke-sz/extra-addons</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,6 +1355,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1459,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1518,6 +1531,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4416,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -5024,8 +5040,13 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="18" customHeight="1">
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="20" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18" customHeight="1">
+      <c r="C165" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="18" customHeight="1">

--- a/manual/Debug_Environment_Creation.xlsx
+++ b/manual/Debug_Environment_Creation.xlsx
@@ -15,6 +15,7 @@
     <sheet name="x.Debug env" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1236,24 +1237,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>------</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  File "/mnt/extra-addons/access_apps/controllers/__init__.py", line 2, in &lt;module&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from . import main</t>
+  </si>
+  <si>
+    <t>https://github.com/daisuke-sz/extra-addons</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ImportError: cannot import name main</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>And if following error was issued , copy extra-addons file and paste them into extra-addons folder again.</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>------</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  File "/mnt/extra-addons/access_apps/controllers/__init__.py", line 2, in &lt;module&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    from . import main</t>
-  </si>
-  <si>
-    <t>ImportError: cannot import name main</t>
-  </si>
-  <si>
-    <t>https://github.com/daisuke-sz/extra-addons</t>
   </si>
 </sst>
 </file>
@@ -4432,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J164" sqref="J164"/>
+    <sheetView tabSelected="1" topLeftCell="A540" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A547" sqref="A547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -5046,7 +5049,7 @@
     </row>
     <row r="165" spans="1:4" ht="18" customHeight="1">
       <c r="C165" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="18" customHeight="1">
@@ -5848,12 +5851,12 @@
     </row>
     <row r="548" spans="2:12" ht="18" customHeight="1">
       <c r="D548" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="550" spans="2:12" ht="18" customHeight="1">
       <c r="D550" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E550" s="8"/>
       <c r="F550" s="8"/>
@@ -5866,7 +5869,7 @@
     </row>
     <row r="551" spans="2:12" ht="18" customHeight="1">
       <c r="D551" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E551" s="11"/>
       <c r="F551" s="11"/>
@@ -5879,7 +5882,7 @@
     </row>
     <row r="552" spans="2:12" ht="18" customHeight="1">
       <c r="D552" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E552" s="11"/>
       <c r="F552" s="11"/>
@@ -5950,9 +5953,10 @@
     <hyperlink ref="C170" r:id="rId3"/>
     <hyperlink ref="C164" r:id="rId4"/>
     <hyperlink ref="E181" r:id="rId5" display="https://es.agricom.co.jp/suzukid/test_dev.git"/>
+    <hyperlink ref="C165" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/manual/Debug_Environment_Creation.xlsx
+++ b/manual/Debug_Environment_Creation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2220C-008B-4159-A182-4E26019060D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="6600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="x.Debug env" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,7 +380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -397,7 +397,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -422,7 +422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -451,7 +451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -462,7 +462,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -479,7 +479,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -490,7 +490,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -501,7 +501,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -518,7 +518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -535,7 +535,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -546,7 +546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -557,7 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -568,7 +568,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -585,7 +585,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -606,7 +606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -616,18 +616,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sudo chown (ユーザー名) /etc/odoo/odoo.conf</t>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">sudo mkdir -p /mnt/extra-addons </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sudo chown -R (ユーザー名)  /mnt/extra-addons</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1258,16 +1247,22 @@
     <t>And if following error was issued , copy extra-addons file and paste them into extra-addons folder again.</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>sudo chown odoo /etc/odoo/odoo.conf</t>
+  </si>
+  <si>
+    <t>sudo chown -R odoo  /mnt/extra-addons</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1275,14 +1270,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1291,7 +1286,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1311,7 +1306,7 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1319,7 +1314,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1327,7 +1322,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1335,7 +1330,7 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1364,7 +1359,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1541,8 +1536,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1563,18 +1558,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>417</xdr:row>
       <xdr:rowOff>162925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323112</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>426</xdr:row>
       <xdr:rowOff>95006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1601,18 +1602,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>126546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>25854</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>112939</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1672,13 +1679,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104555</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="334955"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1722,13 +1735,19 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>51972</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3030311" cy="444688"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1772,18 +1791,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>36253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1827,18 +1852,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6"/>
+        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1931,18 +1962,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="線吹き出し 1 (枠付き) 7"/>
+        <xdr:cNvPr id="8" name="線吹き出し 1 (枠付き) 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2221,13 +2258,19 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276320</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2438304" cy="2343150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2271,13 +2314,19 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>161992</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3487511" cy="2706392"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2321,13 +2370,19 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400774</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3171732" cy="2690898"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2354,13 +2409,19 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>47415</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3020080" cy="2542813"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2387,13 +2448,19 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>67218</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4894975" cy="3985663"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2420,18 +2487,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2475,18 +2548,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2530,18 +2609,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="線吹き出し 1 (枠付き) 15"/>
+        <xdr:cNvPr id="16" name="線吹き出し 1 (枠付き) 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2619,18 +2704,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="線吹き出し 1 (枠付き) 16"/>
+        <xdr:cNvPr id="17" name="線吹き出し 1 (枠付き) 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2686,18 +2777,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>92563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2741,18 +2838,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18"/>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2796,18 +2899,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>96537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>351896</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>151807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2834,18 +2943,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>403</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円 20"/>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2889,18 +3004,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>87707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>237237</xdr:colOff>
-      <xdr:row>408</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>18593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2927,18 +3048,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円 22"/>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2982,18 +3109,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>11602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>33103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3037,18 +3170,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>170040</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>381</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>246240</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>382</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvPr id="25" name="角丸四角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3097,18 +3236,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>455790</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>383</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>531990</xdr:colOff>
-      <xdr:row>382</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvPr id="26" name="角丸四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3157,18 +3302,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>64514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>437</xdr:row>
+      <xdr:row>439</xdr:row>
       <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3212,18 +3363,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>426</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="楕円 27"/>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3267,18 +3424,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>436</xdr:row>
+      <xdr:row>438</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>437</xdr:row>
+      <xdr:row>439</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3322,18 +3485,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>72183</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>441</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409046</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>104182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3360,18 +3529,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>447</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>449</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="楕円 30"/>
+        <xdr:cNvPr id="31" name="楕円 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3415,18 +3590,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>453</xdr:row>
+      <xdr:row>455</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="楕円 31"/>
+        <xdr:cNvPr id="32" name="楕円 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3470,18 +3651,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:row>460</xdr:row>
       <xdr:rowOff>7306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>75243</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>474</xdr:row>
       <xdr:rowOff>47061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3508,18 +3695,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>465</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>465</xdr:row>
+      <xdr:row>467</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="楕円 33"/>
+        <xdr:cNvPr id="34" name="楕円 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3563,18 +3756,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>481</xdr:row>
+      <xdr:row>483</xdr:row>
       <xdr:rowOff>69277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>491</xdr:row>
       <xdr:rowOff>162445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3601,18 +3800,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>485</xdr:row>
+      <xdr:row>487</xdr:row>
       <xdr:rowOff>7604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>380150</xdr:colOff>
-      <xdr:row>492</xdr:row>
+      <xdr:row>494</xdr:row>
       <xdr:rowOff>47407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3639,18 +3844,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>498</xdr:row>
+      <xdr:row>500</xdr:row>
       <xdr:rowOff>31575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3694,18 +3905,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>234536</xdr:colOff>
-      <xdr:row>497</xdr:row>
+      <xdr:row>499</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3749,18 +3966,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="楕円 38"/>
+        <xdr:cNvPr id="39" name="楕円 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3804,18 +4027,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>501</xdr:row>
+      <xdr:row>503</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>504</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="楕円 39"/>
+        <xdr:cNvPr id="40" name="楕円 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3859,18 +4088,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="楕円 40"/>
+        <xdr:cNvPr id="41" name="楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3914,18 +4149,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>468</xdr:row>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>472</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="楕円 41"/>
+        <xdr:cNvPr id="42" name="楕円 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3969,18 +4210,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>509</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>110442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>627697</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>56564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4007,18 +4254,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>501</xdr:row>
+      <xdr:row>503</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>504</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="右矢印 43"/>
+        <xdr:cNvPr id="44" name="右矢印 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4061,18 +4314,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>528</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>529</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="楕円 44"/>
+        <xdr:cNvPr id="45" name="楕円 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4116,18 +4375,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>533</xdr:row>
       <xdr:rowOff>63796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>543</xdr:row>
+      <xdr:row>545</xdr:row>
       <xdr:rowOff>35692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4432,12 +4697,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L572"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A547" sqref="A547"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <sheetData>
@@ -4472,717 +4735,711 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" ht="18" customHeight="1">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" ht="18" customHeight="1">
+      <c r="B12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1">
-      <c r="B13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1">
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" customHeight="1">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" customHeight="1">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1">
-      <c r="A16" t="s">
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="B17" t="s">
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="C18" t="s">
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="C20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="C19" t="s">
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="D20" t="s">
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="D22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="D21" t="s">
+    <row r="23" spans="1:5" ht="18" customHeight="1">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="E22" t="s">
+    <row r="24" spans="1:5" ht="18" customHeight="1">
+      <c r="E24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="C24" t="s">
+    <row r="26" spans="1:5" ht="18" customHeight="1">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1">
-      <c r="D25" t="s">
+    <row r="27" spans="1:5" ht="18" customHeight="1">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1">
-      <c r="A27" t="s">
+    <row r="29" spans="1:5" ht="18" customHeight="1">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1">
-      <c r="B28" t="s">
+    <row r="30" spans="1:5" ht="18" customHeight="1">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1">
-      <c r="C29" t="s">
+    <row r="31" spans="1:5" ht="18" customHeight="1">
+      <c r="C31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1">
-      <c r="D30" t="s">
+    <row r="32" spans="1:5" ht="18" customHeight="1">
+      <c r="D32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1">
-      <c r="D31" s="1" t="s">
+    <row r="33" spans="3:4" ht="18" customHeight="1">
+      <c r="D33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="18" customHeight="1">
-      <c r="D33" t="s">
+    <row r="35" spans="3:4" ht="18" customHeight="1">
+      <c r="D35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="18" customHeight="1">
-      <c r="C36" t="s">
+    <row r="38" spans="3:4" ht="18" customHeight="1">
+      <c r="C38" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="3:4" ht="18" customHeight="1">
-      <c r="D37" t="s">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="3:4" ht="18" customHeight="1">
+      <c r="D39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="18" customHeight="1">
-      <c r="C39" t="s">
+    <row r="41" spans="3:4" ht="18" customHeight="1">
+      <c r="C41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="18" customHeight="1">
-      <c r="D40" t="s">
+    <row r="42" spans="3:4" ht="18" customHeight="1">
+      <c r="D42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="3:4" ht="18" customHeight="1">
-      <c r="D44" t="s">
+    <row r="46" spans="3:4" ht="18" customHeight="1">
+      <c r="D46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="18" customHeight="1">
-      <c r="D48" t="s">
+    <row r="50" spans="1:5" ht="18" customHeight="1">
+      <c r="D50" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18" customHeight="1">
-      <c r="E49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18" customHeight="1">
-      <c r="E50" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1">
       <c r="E51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" customHeight="1">
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18" customHeight="1">
+      <c r="E53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18" customHeight="1">
-      <c r="A53" t="s">
+    <row r="55" spans="1:5" ht="18" customHeight="1">
+      <c r="A55" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18" customHeight="1">
-      <c r="B54" t="s">
+    <row r="56" spans="1:5" ht="18" customHeight="1">
+      <c r="B56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18" customHeight="1">
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
+    <row r="57" spans="1:5" ht="18" customHeight="1">
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" customHeight="1">
-      <c r="B56" s="1"/>
-      <c r="C56" t="s">
+    <row r="58" spans="1:5" ht="18" customHeight="1">
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18" customHeight="1">
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" ht="18" customHeight="1">
-      <c r="B58" t="s">
+    <row r="59" spans="1:5" ht="18" customHeight="1">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="18" customHeight="1">
+      <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="18" customHeight="1">
-      <c r="B59" t="s">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="18" customHeight="1">
+      <c r="B61" t="s">
         <v>41</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="18" customHeight="1">
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="18" customHeight="1">
-      <c r="D61" t="s">
-        <v>43</v>
-      </c>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:5" ht="18" customHeight="1">
       <c r="D62" s="1"/>
-      <c r="E62" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="18" customHeight="1">
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" customHeight="1">
+      <c r="D64" s="1"/>
+      <c r="E64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" customHeight="1">
-      <c r="D64" t="s">
+    <row r="66" spans="3:6" ht="18" customHeight="1">
+      <c r="D66" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1">
-      <c r="C65" s="1"/>
-      <c r="E65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1">
-      <c r="C66" s="1"/>
-      <c r="E66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1">
+    <row r="67" spans="3:6" ht="18" customHeight="1">
       <c r="C67" s="1"/>
       <c r="E67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="18" customHeight="1">
       <c r="C68" s="1"/>
       <c r="E68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="18" customHeight="1">
       <c r="C69" s="1"/>
       <c r="E69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="18" customHeight="1">
+      <c r="C70" s="1"/>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="18" customHeight="1">
+      <c r="C71" s="1"/>
+      <c r="E71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1">
-      <c r="E70" t="s">
+    <row r="72" spans="3:6" ht="18" customHeight="1">
+      <c r="E72" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1">
-      <c r="E71" t="s">
+    <row r="73" spans="3:6" ht="18" customHeight="1">
+      <c r="E73" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1">
-      <c r="E72" t="s">
+    <row r="74" spans="3:6" ht="18" customHeight="1">
+      <c r="E74" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1">
-      <c r="F73" t="s">
+    <row r="75" spans="3:6" ht="18" customHeight="1">
+      <c r="F75" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1">
-      <c r="F74" t="s">
+    <row r="76" spans="3:6" ht="18" customHeight="1">
+      <c r="F76" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1">
-      <c r="E75" t="s">
+    <row r="77" spans="3:6" ht="18" customHeight="1">
+      <c r="E77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1">
-      <c r="E76" t="s">
+    <row r="78" spans="3:6" ht="18" customHeight="1">
+      <c r="E78" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1">
-      <c r="A79" t="s">
+    <row r="81" spans="1:4" ht="18" customHeight="1">
+      <c r="A81" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="18" customHeight="1">
-      <c r="B81" t="s">
+    <row r="83" spans="1:4" ht="18" customHeight="1">
+      <c r="B83" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="18" customHeight="1">
-      <c r="C82" t="s">
+    <row r="84" spans="1:4" ht="18" customHeight="1">
+      <c r="C84" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="18" customHeight="1">
-      <c r="D83" t="s">
+    <row r="85" spans="1:4" ht="18" customHeight="1">
+      <c r="D85" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="18" customHeight="1">
-      <c r="C96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" ht="18" customHeight="1">
-      <c r="C97" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="18" customHeight="1">
       <c r="C98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="18" customHeight="1">
       <c r="C99" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="18" customHeight="1">
       <c r="C100" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="18" customHeight="1">
       <c r="C101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="18" customHeight="1">
       <c r="C102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" ht="18" customHeight="1">
+      <c r="C103" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" ht="18" customHeight="1">
+      <c r="C104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="3:4" ht="18" customHeight="1">
-      <c r="D103" s="2" t="s">
+    <row r="105" spans="3:4" ht="18" customHeight="1">
+      <c r="D105" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="3:4" ht="18" customHeight="1">
-      <c r="D104" s="3" t="s">
+    <row r="106" spans="3:4" ht="18" customHeight="1">
+      <c r="D106" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" ht="18" customHeight="1">
-      <c r="C105" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="18" customHeight="1">
       <c r="C107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" ht="18" customHeight="1">
-      <c r="C108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="18" customHeight="1">
       <c r="C109" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="18" customHeight="1">
       <c r="C110" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="18" customHeight="1">
       <c r="C111" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="18" customHeight="1">
       <c r="C112" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="18" customHeight="1">
       <c r="C113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="18" customHeight="1">
+      <c r="C114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="18" customHeight="1">
+      <c r="C115" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="18" customHeight="1">
-      <c r="B115" t="s">
+    <row r="117" spans="2:3" ht="18" customHeight="1">
+      <c r="B117" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="18" customHeight="1">
-      <c r="C117" s="4" t="s">
+    <row r="119" spans="2:3" ht="18" customHeight="1">
+      <c r="C119" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="18" customHeight="1">
-      <c r="C118" s="4" t="s">
+    <row r="120" spans="2:3" ht="18" customHeight="1">
+      <c r="C120" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="18" customHeight="1">
-      <c r="C120" s="5" t="s">
+    <row r="122" spans="2:3" ht="18" customHeight="1">
+      <c r="C122" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="18" customHeight="1">
-      <c r="C121" s="5" t="s">
+    <row r="123" spans="2:3" ht="18" customHeight="1">
+      <c r="C123" s="5" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" ht="18" customHeight="1">
-      <c r="C123" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" ht="18" customHeight="1">
-      <c r="C124" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="18" customHeight="1">
       <c r="C125" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="18" customHeight="1">
+      <c r="C126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="18" customHeight="1">
+      <c r="C127" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="18" customHeight="1">
-      <c r="C126" s="6" t="s">
+    <row r="128" spans="2:3" ht="18" customHeight="1">
+      <c r="C128" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="18" customHeight="1">
-      <c r="C128" t="s">
+    <row r="130" spans="2:3" ht="18" customHeight="1">
+      <c r="C130" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="18" customHeight="1">
+      <c r="C131" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18" customHeight="1">
-      <c r="C129" t="s">
+    <row r="132" spans="2:3" ht="18" customHeight="1">
+      <c r="C132" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="18" customHeight="1">
+      <c r="B134" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18" customHeight="1">
-      <c r="C130" t="s">
+    <row r="135" spans="2:3" ht="18" customHeight="1">
+      <c r="C135" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18" customHeight="1">
-      <c r="B132" t="s">
+    <row r="136" spans="2:3" ht="18" customHeight="1">
+      <c r="C136" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18" customHeight="1">
-      <c r="C133" t="s">
+    <row r="138" spans="2:3" ht="18" customHeight="1">
+      <c r="C138" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18" customHeight="1">
-      <c r="C134" t="s">
+    <row r="141" spans="2:3" ht="18" customHeight="1">
+      <c r="C141" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18" customHeight="1">
-      <c r="C136" t="s">
+    <row r="142" spans="2:3" ht="18" customHeight="1">
+      <c r="C142" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18" customHeight="1">
-      <c r="C139" t="s">
+    <row r="145" spans="1:11" ht="18" customHeight="1">
+      <c r="A145" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18" customHeight="1">
-      <c r="C140" t="s">
+    <row r="146" spans="1:11" ht="18" customHeight="1">
+      <c r="B146" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18" customHeight="1">
-      <c r="A143" t="s">
+    <row r="147" spans="1:11" ht="18" customHeight="1">
+      <c r="C147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="18" customHeight="1">
+      <c r="C148" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18" customHeight="1">
-      <c r="B144" t="s">
+    <row r="151" spans="1:11" ht="18" customHeight="1">
+      <c r="B151" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="18" customHeight="1">
-      <c r="C145" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" ht="18" customHeight="1">
-      <c r="C146" t="s">
+    <row r="152" spans="1:11" ht="18" customHeight="1">
+      <c r="C152" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="18" customHeight="1">
-      <c r="B149" t="s">
+    <row r="153" spans="1:11" ht="18" customHeight="1">
+      <c r="D153" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="18" customHeight="1">
-      <c r="C150" t="s">
+    <row r="154" spans="1:11" ht="18" customHeight="1">
+      <c r="D154" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="2:11" ht="18" customHeight="1">
-      <c r="D151" t="s">
+    <row r="155" spans="1:11" ht="18" customHeight="1">
+      <c r="C155" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="2:11" ht="18" customHeight="1">
-      <c r="D152" t="s">
+    <row r="156" spans="1:11" ht="18" customHeight="1">
+      <c r="D156" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="153" spans="2:11" ht="18" customHeight="1">
-      <c r="C153" t="s">
+      <c r="G156" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="2:11" ht="18" customHeight="1">
-      <c r="D154" t="s">
+    <row r="157" spans="1:11" ht="18" customHeight="1">
+      <c r="G157" t="s">
         <v>104</v>
       </c>
-      <c r="G154" t="s">
+    </row>
+    <row r="158" spans="1:11" ht="18" customHeight="1">
+      <c r="D158" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="155" spans="2:11" ht="18" customHeight="1">
-      <c r="G155" t="s">
+      <c r="G158" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="2:11" ht="18" customHeight="1">
-      <c r="D156" t="s">
+    <row r="159" spans="1:11" ht="18" customHeight="1">
+      <c r="D159" t="s">
         <v>107</v>
       </c>
-      <c r="G156" t="s">
+      <c r="K159" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="2:11" ht="18" customHeight="1">
-      <c r="D157" t="s">
+    <row r="160" spans="1:11" ht="18" customHeight="1">
+      <c r="D160" t="s">
         <v>109</v>
       </c>
-      <c r="K157" t="s">
+      <c r="G160" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:11" ht="18" customHeight="1">
-      <c r="D158" t="s">
+    <row r="161" spans="1:7" ht="18" customHeight="1">
+      <c r="D161" t="s">
         <v>111</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G161" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="18" customHeight="1">
-      <c r="D159" t="s">
+    <row r="163" spans="1:7" ht="18" customHeight="1">
+      <c r="A163" t="s">
         <v>113</v>
       </c>
-      <c r="G159" t="s">
+    </row>
+    <row r="164" spans="1:7" ht="18" customHeight="1">
+      <c r="B164" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18" customHeight="1">
-      <c r="A161" t="s">
+    <row r="165" spans="1:7" ht="18" customHeight="1">
+      <c r="C165" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18" customHeight="1">
-      <c r="B162" t="s">
+    <row r="166" spans="1:7" ht="18" customHeight="1">
+      <c r="C166" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18" customHeight="1">
-      <c r="C163" t="s">
+    <row r="167" spans="1:7" ht="18" customHeight="1">
+      <c r="C167" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18" customHeight="1">
+      <c r="B169" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18" customHeight="1">
-      <c r="C164" s="20" t="s">
+    <row r="170" spans="1:7" ht="18" customHeight="1">
+      <c r="C170" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18" customHeight="1">
-      <c r="C165" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="18" customHeight="1">
-      <c r="B167" t="s">
+    <row r="171" spans="1:7" ht="18" customHeight="1">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18" customHeight="1">
-      <c r="C168" t="s">
+    <row r="172" spans="1:7" ht="18" customHeight="1">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18" customHeight="1">
-      <c r="B169" s="1"/>
-      <c r="C169" s="1" t="s">
+    <row r="173" spans="1:7" ht="18" customHeight="1">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" ht="18" customHeight="1">
+      <c r="B174" s="1"/>
+      <c r="C174" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18" customHeight="1">
-      <c r="B170" s="1"/>
-      <c r="C170" s="1" t="s">
+    <row r="175" spans="1:7" ht="18" customHeight="1">
+      <c r="B175" s="1"/>
+      <c r="D175" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18" customHeight="1">
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" ht="18" customHeight="1">
-      <c r="B172" s="1"/>
-      <c r="C172" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="18" customHeight="1">
-      <c r="B173" s="1"/>
-      <c r="D173" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="18" customHeight="1">
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:4" ht="18" customHeight="1">
-      <c r="B175" s="1"/>
-      <c r="C175" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="18" customHeight="1">
+    <row r="176" spans="1:7" ht="18" customHeight="1">
       <c r="B176" s="1"/>
-      <c r="D176" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="177" spans="2:12" ht="18" customHeight="1">
       <c r="B177" s="1"/>
-      <c r="D177" t="s">
-        <v>127</v>
+      <c r="C177" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="178" spans="2:12" ht="18" customHeight="1">
       <c r="B178" s="1"/>
-      <c r="E178" t="s">
-        <v>128</v>
+      <c r="D178" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="179" spans="2:12" ht="18" customHeight="1">
       <c r="B179" s="1"/>
       <c r="D179" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" spans="2:12" ht="18" customHeight="1">
       <c r="B180" s="1"/>
-      <c r="E180" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="K180" s="8"/>
-      <c r="L180" s="9"/>
+      <c r="E180" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="181" spans="2:12" ht="18" customHeight="1">
       <c r="B181" s="1"/>
-      <c r="E181" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K181" s="11"/>
-      <c r="L181" s="12"/>
+      <c r="D181" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="182" spans="2:12" ht="18" customHeight="1">
       <c r="B182" s="1"/>
-      <c r="E182" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="11"/>
-      <c r="L182" s="12"/>
+      <c r="E182" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K182" s="8"/>
+      <c r="L182" s="9"/>
     </row>
     <row r="183" spans="2:12" ht="18" customHeight="1">
       <c r="B183" s="1"/>
-      <c r="E183" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="16"/>
+      <c r="E183" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K183" s="11"/>
+      <c r="L183" s="12"/>
     </row>
     <row r="184" spans="2:12" ht="18" customHeight="1">
       <c r="B184" s="1"/>
+      <c r="E184" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="12"/>
     </row>
     <row r="185" spans="2:12" ht="18" customHeight="1">
       <c r="B185" s="1"/>
+      <c r="E185" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="16"/>
     </row>
     <row r="186" spans="2:12" ht="18" customHeight="1">
       <c r="B186" s="1"/>
@@ -5217,347 +5474,347 @@
     <row r="196" spans="2:3" ht="18" customHeight="1">
       <c r="B196" s="1"/>
     </row>
-    <row r="200" spans="2:3" ht="18" customHeight="1">
-      <c r="B200" t="s">
-        <v>136</v>
-      </c>
+    <row r="197" spans="2:3" ht="18" customHeight="1">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:3" ht="18" customHeight="1">
+      <c r="B198" s="1"/>
     </row>
     <row r="202" spans="2:3" ht="18" customHeight="1">
-      <c r="C202" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" ht="18" customHeight="1">
-      <c r="C203" t="s">
-        <v>138</v>
+      <c r="B202" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="18" customHeight="1">
       <c r="C204" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="18" customHeight="1">
       <c r="C205" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="18" customHeight="1">
       <c r="C206" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="18" customHeight="1">
       <c r="C207" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="18" customHeight="1">
       <c r="C208" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" ht="18" customHeight="1">
+      <c r="C209" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" ht="18" customHeight="1">
+      <c r="C210" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" ht="18" customHeight="1">
+      <c r="D211" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" ht="18" customHeight="1">
+      <c r="C212" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="18" customHeight="1">
-      <c r="D209" t="s">
+    <row r="225" spans="2:4" ht="18" customHeight="1">
+      <c r="B225" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="18" customHeight="1">
-      <c r="C210" t="s">
+    <row r="226" spans="2:4" ht="18" customHeight="1">
+      <c r="C226" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="18" customHeight="1">
-      <c r="B223" t="s">
+    <row r="227" spans="2:4" ht="18" customHeight="1">
+      <c r="D227" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="2:4" ht="18" customHeight="1">
-      <c r="C224" t="s">
+    <row r="228" spans="2:4" ht="18" customHeight="1">
+      <c r="D228" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="225" spans="4:4" ht="18" customHeight="1">
-      <c r="D225" t="s">
+    <row r="229" spans="2:4" ht="18" customHeight="1">
+      <c r="D229" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="226" spans="4:4" ht="18" customHeight="1">
-      <c r="D226" t="s">
+    <row r="246" spans="3:4" ht="18" customHeight="1">
+      <c r="C246" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="227" spans="4:4" ht="18" customHeight="1">
-      <c r="D227" t="s">
+    <row r="247" spans="3:4" ht="18" customHeight="1">
+      <c r="D247" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="244" spans="3:4" ht="18" customHeight="1">
-      <c r="C244" t="s">
+    <row r="264" spans="3:3" ht="18" customHeight="1">
+      <c r="C264" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="245" spans="3:4" ht="18" customHeight="1">
-      <c r="D245" t="s">
+    <row r="289" spans="2:5" ht="18" customHeight="1">
+      <c r="B289" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="3:3" ht="18" customHeight="1">
-      <c r="C262" t="s">
+    <row r="291" spans="2:5" ht="18" customHeight="1">
+      <c r="C291" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="18" customHeight="1">
-      <c r="B287" t="s">
+    <row r="293" spans="2:5" ht="18" customHeight="1">
+      <c r="C293" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="289" spans="3:5" ht="18" customHeight="1">
-      <c r="C289" t="s">
+    <row r="294" spans="2:5" ht="18" customHeight="1">
+      <c r="D294" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="291" spans="3:5" ht="18" customHeight="1">
-      <c r="C291" t="s">
+    <row r="296" spans="2:5" ht="18" customHeight="1">
+      <c r="D296" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="292" spans="3:5" ht="18" customHeight="1">
-      <c r="D292" t="s">
+    <row r="298" spans="2:5" ht="18" customHeight="1">
+      <c r="D298" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="294" spans="3:5" ht="18" customHeight="1">
-      <c r="D294" t="s">
+    <row r="300" spans="2:5" ht="18" customHeight="1">
+      <c r="E300" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="296" spans="3:5" ht="18" customHeight="1">
-      <c r="D296" t="s">
+    <row r="301" spans="2:5" ht="18" customHeight="1">
+      <c r="E301" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="298" spans="3:5" ht="18" customHeight="1">
-      <c r="E298" s="17" t="s">
+    <row r="302" spans="2:5" ht="18" customHeight="1">
+      <c r="E302" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="299" spans="3:5" ht="18" customHeight="1">
-      <c r="E299" s="17" t="s">
+    <row r="303" spans="2:5" ht="18" customHeight="1">
+      <c r="E303" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="300" spans="3:5" ht="18" customHeight="1">
-      <c r="E300" s="17" t="s">
+    <row r="304" spans="2:5" ht="18" customHeight="1">
+      <c r="E304" s="17" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="301" spans="3:5" ht="18" customHeight="1">
-      <c r="E301" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="302" spans="3:5" ht="18" customHeight="1">
-      <c r="E302" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="303" spans="3:5" ht="18" customHeight="1">
-      <c r="E303" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="304" spans="3:5" ht="18" customHeight="1">
-      <c r="E304" s="17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="305" spans="5:5" ht="18" customHeight="1">
       <c r="E305" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="306" spans="5:5" ht="18" customHeight="1">
       <c r="E306" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="307" spans="5:5" ht="18" customHeight="1">
       <c r="E307" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="308" spans="5:5" ht="18" customHeight="1">
       <c r="E308" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="309" spans="5:5" ht="18" customHeight="1">
       <c r="E309" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="310" spans="5:5" ht="18" customHeight="1">
       <c r="E310" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311" spans="5:5" ht="18" customHeight="1">
       <c r="E311" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="312" spans="5:5" ht="18" customHeight="1">
       <c r="E312" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="313" spans="5:5" ht="18" customHeight="1">
       <c r="E313" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="314" spans="5:5" ht="18" customHeight="1">
       <c r="E314" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="315" spans="5:5" ht="18" customHeight="1">
       <c r="E315" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="316" spans="5:5" ht="18" customHeight="1">
       <c r="E316" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="317" spans="5:5" ht="18" customHeight="1">
       <c r="E317" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="318" spans="5:5" ht="18" customHeight="1">
       <c r="E318" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="319" spans="5:5" ht="18" customHeight="1">
       <c r="E319" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="320" spans="5:5" ht="18" customHeight="1">
       <c r="E320" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="321" spans="3:5" ht="18" customHeight="1">
+      <c r="E321" s="17" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="322" spans="3:5" ht="18" customHeight="1">
-      <c r="C322" t="s">
-        <v>183</v>
+      <c r="E322" s="17" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="324" spans="3:5" ht="18" customHeight="1">
-      <c r="D324" t="s">
-        <v>184</v>
+      <c r="C324" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="326" spans="3:5" ht="18" customHeight="1">
       <c r="D326" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="328" spans="3:5" ht="18" customHeight="1">
       <c r="D328" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="330" spans="3:5" ht="18" customHeight="1">
-      <c r="E330" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="331" spans="3:5" ht="18" customHeight="1">
-      <c r="E331" s="17" t="s">
-        <v>187</v>
+      <c r="D330" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="332" spans="3:5" ht="18" customHeight="1">
       <c r="E332" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="333" spans="3:5" ht="18" customHeight="1">
       <c r="E333" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="334" spans="3:5" ht="18" customHeight="1">
       <c r="E334" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="335" spans="3:5" ht="18" customHeight="1">
       <c r="E335" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="336" spans="3:5" ht="18" customHeight="1">
       <c r="E336" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" ht="18" customHeight="1">
+      <c r="E337" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" ht="18" customHeight="1">
+      <c r="E338" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" ht="18" customHeight="1">
+      <c r="B340" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" ht="18" customHeight="1">
+      <c r="C342" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="338" spans="2:4" ht="18" customHeight="1">
-      <c r="B338" t="s">
+    <row r="343" spans="2:5" ht="18" customHeight="1">
+      <c r="D343" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="340" spans="2:4" ht="18" customHeight="1">
-      <c r="C340" t="s">
+    <row r="344" spans="2:5" ht="18" customHeight="1">
+      <c r="D344" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="341" spans="2:4" ht="18" customHeight="1">
-      <c r="D341" t="s">
+    <row r="345" spans="2:5" ht="18" customHeight="1">
+      <c r="B345" s="1"/>
+      <c r="D345" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="342" spans="2:4" ht="18" customHeight="1">
-      <c r="D342" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" ht="18" customHeight="1">
-      <c r="B343" s="1"/>
-      <c r="D343" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" ht="18" customHeight="1">
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="2:4" ht="18" customHeight="1">
-      <c r="B345" s="1"/>
-    </row>
-    <row r="346" spans="2:4" ht="18" customHeight="1">
+    <row r="346" spans="2:5" ht="18" customHeight="1">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:4" ht="18" customHeight="1">
+    <row r="347" spans="2:5" ht="18" customHeight="1">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:4" ht="18" customHeight="1">
+    <row r="348" spans="2:5" ht="18" customHeight="1">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:4" ht="18" customHeight="1">
+    <row r="349" spans="2:5" ht="18" customHeight="1">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:4" ht="18" customHeight="1">
+    <row r="350" spans="2:5" ht="18" customHeight="1">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:4" ht="18" customHeight="1">
+    <row r="351" spans="2:5" ht="18" customHeight="1">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:4" ht="18" customHeight="1">
+    <row r="352" spans="2:5" ht="18" customHeight="1">
       <c r="B352" s="1"/>
     </row>
     <row r="353" spans="2:2" ht="18" customHeight="1">
@@ -5613,42 +5870,42 @@
     </row>
     <row r="370" spans="2:4" ht="18" customHeight="1">
       <c r="B370" s="1"/>
-      <c r="C370" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="371" spans="2:4" ht="18" customHeight="1">
       <c r="B371" s="1"/>
     </row>
     <row r="372" spans="2:4" ht="18" customHeight="1">
       <c r="B372" s="1"/>
-      <c r="D372" t="s">
-        <v>199</v>
+      <c r="C372" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="373" spans="2:4" ht="18" customHeight="1">
       <c r="B373" s="1"/>
-      <c r="D373" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="374" spans="2:4" ht="18" customHeight="1">
       <c r="B374" s="1"/>
       <c r="D374" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="375" spans="2:4" ht="18" customHeight="1">
       <c r="B375" s="1"/>
       <c r="D375" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="376" spans="2:4" ht="18" customHeight="1">
       <c r="B376" s="1"/>
+      <c r="D376" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="377" spans="2:4" ht="18" customHeight="1">
       <c r="B377" s="1"/>
+      <c r="D377" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="378" spans="2:4" ht="18" customHeight="1">
       <c r="B378" s="1"/>
@@ -5697,15 +5954,15 @@
     </row>
     <row r="393" spans="2:4" ht="18" customHeight="1">
       <c r="B393" s="1"/>
-      <c r="D393" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="394" spans="2:4" ht="18" customHeight="1">
       <c r="B394" s="1"/>
     </row>
     <row r="395" spans="2:4" ht="18" customHeight="1">
       <c r="B395" s="1"/>
+      <c r="D395" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="396" spans="2:4" ht="18" customHeight="1">
       <c r="B396" s="1"/>
@@ -5757,160 +6014,160 @@
     </row>
     <row r="412" spans="2:5" ht="18" customHeight="1">
       <c r="B412" s="1"/>
-      <c r="D412" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="413" spans="2:5" ht="18" customHeight="1">
       <c r="B413" s="1"/>
-      <c r="E413" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="414" spans="2:5" ht="18" customHeight="1">
       <c r="B414" s="1"/>
-      <c r="E414" t="s">
-        <v>206</v>
+      <c r="D414" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="415" spans="2:5" ht="18" customHeight="1">
       <c r="B415" s="1"/>
       <c r="E415" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="416" spans="2:5" ht="18" customHeight="1">
       <c r="B416" s="1"/>
-    </row>
-    <row r="417" spans="2:4" ht="18" customHeight="1">
+      <c r="E416" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" ht="18" customHeight="1">
       <c r="B417" s="1"/>
-    </row>
-    <row r="418" spans="2:4" ht="18" customHeight="1">
+      <c r="E417" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" ht="18" customHeight="1">
       <c r="B418" s="1"/>
     </row>
-    <row r="419" spans="2:4" ht="18" customHeight="1">
+    <row r="419" spans="2:5" ht="18" customHeight="1">
       <c r="B419" s="1"/>
     </row>
-    <row r="420" spans="2:4" ht="18" customHeight="1">
+    <row r="420" spans="2:5" ht="18" customHeight="1">
       <c r="B420" s="1"/>
     </row>
-    <row r="427" spans="2:4" ht="18" customHeight="1">
-      <c r="D427" t="s">
+    <row r="421" spans="2:5" ht="18" customHeight="1">
+      <c r="B421" s="1"/>
+    </row>
+    <row r="422" spans="2:5" ht="18" customHeight="1">
+      <c r="B422" s="1"/>
+    </row>
+    <row r="429" spans="2:5" ht="18" customHeight="1">
+      <c r="D429" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="442" spans="4:4" ht="18" customHeight="1">
+      <c r="D442" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="460" spans="4:4" ht="18" customHeight="1">
+      <c r="D460" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="440" spans="4:4" ht="18" customHeight="1">
-      <c r="D440" t="s">
+    <row r="478" spans="1:2" ht="18" customHeight="1">
+      <c r="A478" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="458" spans="4:4" ht="18" customHeight="1">
-      <c r="D458" t="s">
+    <row r="480" spans="1:2" ht="18" customHeight="1">
+      <c r="B480" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="18" customHeight="1">
-      <c r="A476" t="s">
+    <row r="482" spans="3:3" ht="18" customHeight="1">
+      <c r="C482" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="18" customHeight="1">
-      <c r="B478" t="s">
+    <row r="483" spans="3:3" ht="18" customHeight="1">
+      <c r="C483" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="18" customHeight="1">
-      <c r="C480" t="s">
+    <row r="498" spans="2:2" ht="18" customHeight="1">
+      <c r="B498" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="481" spans="2:3" ht="18" customHeight="1">
-      <c r="C481" t="s">
+    <row r="511" spans="2:2" ht="18" customHeight="1">
+      <c r="B511" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="496" spans="2:3" ht="18" customHeight="1">
-      <c r="B496" t="s">
+    <row r="533" spans="2:2" ht="18" customHeight="1">
+      <c r="B533" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="509" spans="2:2" ht="18" customHeight="1">
-      <c r="B509" t="s">
+    <row r="548" spans="4:12" ht="18" customHeight="1">
+      <c r="D548" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="531" spans="2:2" ht="18" customHeight="1">
-      <c r="B531" t="s">
+    <row r="550" spans="4:12" ht="18" customHeight="1">
+      <c r="D550" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="552" spans="4:12" ht="18" customHeight="1">
+      <c r="D552" s="18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="546" spans="2:12" ht="18" customHeight="1">
-      <c r="D546" t="s">
+      <c r="E552" s="8"/>
+      <c r="F552" s="8"/>
+      <c r="G552" s="8"/>
+      <c r="H552" s="8"/>
+      <c r="I552" s="8"/>
+      <c r="J552" s="8"/>
+      <c r="K552" s="8"/>
+      <c r="L552" s="9"/>
+    </row>
+    <row r="553" spans="4:12" ht="18" customHeight="1">
+      <c r="D553" s="13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="548" spans="2:12" ht="18" customHeight="1">
-      <c r="D548" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="550" spans="2:12" ht="18" customHeight="1">
-      <c r="D550" s="18" t="s">
+      <c r="E553" s="11"/>
+      <c r="F553" s="11"/>
+      <c r="G553" s="11"/>
+      <c r="H553" s="11"/>
+      <c r="I553" s="11"/>
+      <c r="J553" s="11"/>
+      <c r="K553" s="11"/>
+      <c r="L553" s="12"/>
+    </row>
+    <row r="554" spans="4:12" ht="18" customHeight="1">
+      <c r="D554" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E550" s="8"/>
-      <c r="F550" s="8"/>
-      <c r="G550" s="8"/>
-      <c r="H550" s="8"/>
-      <c r="I550" s="8"/>
-      <c r="J550" s="8"/>
-      <c r="K550" s="8"/>
-      <c r="L550" s="9"/>
-    </row>
-    <row r="551" spans="2:12" ht="18" customHeight="1">
-      <c r="D551" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E551" s="11"/>
-      <c r="F551" s="11"/>
-      <c r="G551" s="11"/>
-      <c r="H551" s="11"/>
-      <c r="I551" s="11"/>
-      <c r="J551" s="11"/>
-      <c r="K551" s="11"/>
-      <c r="L551" s="12"/>
-    </row>
-    <row r="552" spans="2:12" ht="18" customHeight="1">
-      <c r="D552" s="13" t="s">
+      <c r="E554" s="11"/>
+      <c r="F554" s="11"/>
+      <c r="G554" s="11"/>
+      <c r="H554" s="11"/>
+      <c r="I554" s="11"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="11"/>
+      <c r="L554" s="12"/>
+    </row>
+    <row r="555" spans="4:12" ht="18" customHeight="1">
+      <c r="D555" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="E552" s="11"/>
-      <c r="F552" s="11"/>
-      <c r="G552" s="11"/>
-      <c r="H552" s="11"/>
-      <c r="I552" s="11"/>
-      <c r="J552" s="11"/>
-      <c r="K552" s="11"/>
-      <c r="L552" s="12"/>
-    </row>
-    <row r="553" spans="2:12" ht="18" customHeight="1">
-      <c r="D553" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E553" s="15"/>
-      <c r="F553" s="15"/>
-      <c r="G553" s="15"/>
-      <c r="H553" s="15"/>
-      <c r="I553" s="15"/>
-      <c r="J553" s="15"/>
-      <c r="K553" s="15"/>
-      <c r="L553" s="16"/>
-    </row>
-    <row r="560" spans="2:12" ht="18" customHeight="1">
-      <c r="B560" s="1"/>
-    </row>
-    <row r="561" spans="2:2" ht="18" customHeight="1">
-      <c r="B561" s="1"/>
+      <c r="E555" s="15"/>
+      <c r="F555" s="15"/>
+      <c r="G555" s="15"/>
+      <c r="H555" s="15"/>
+      <c r="I555" s="15"/>
+      <c r="J555" s="15"/>
+      <c r="K555" s="15"/>
+      <c r="L555" s="16"/>
     </row>
     <row r="562" spans="2:2" ht="18" customHeight="1">
       <c r="B562" s="1"/>
@@ -5944,16 +6201,22 @@
     </row>
     <row r="572" spans="2:2" ht="18" customHeight="1">
       <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="2:2" ht="18" customHeight="1">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="2:2" ht="18" customHeight="1">
+      <c r="B574" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1"/>
-    <hyperlink ref="C169" r:id="rId2"/>
-    <hyperlink ref="C170" r:id="rId3"/>
-    <hyperlink ref="C164" r:id="rId4"/>
-    <hyperlink ref="E181" r:id="rId5" display="https://es.agricom.co.jp/suzukid/test_dev.git"/>
-    <hyperlink ref="C165" r:id="rId6"/>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C171" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C172" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C166" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E183" r:id="rId5" display="https://es.agricom.co.jp/suzukid/test_dev.git" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C167" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/manual/Debug_Environment_Creation.xlsx
+++ b/manual/Debug_Environment_Creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Webcoop\webcoop_other\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2220C-008B-4159-A182-4E26019060D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17E82A-9580-41D4-ACF7-89D60ED1838B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="225">
   <si>
     <t>Requirement</t>
     <phoneticPr fontId="2"/>
@@ -777,29 +777,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://es.agricom.co.jp/rberdin/extra-addons</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1) download latest source from git server</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>参考</t>
-    <rPh sb="0" eb="2">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.kakiro-web.com/memo/eclipse-git-client.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://tech.pjin.jp/blog/2015/10/17/git-on-eclipse-9-make-branch/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(1-1) Open git perspective</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -828,27 +809,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>URI: https://es.agricom.co.jp/ohsaki_s/Web-MIS.git</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">…source for releasing </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(URI: https://es.agricom.co.jp/suzukid/test_dev.git</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>…source for private development)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>User: gitlab account user  ( need to get the account from PMO (AC Mr.Ohsaki))</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Password:gitlab account user password ( same as above)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1236,10 +1201,6 @@
     <t xml:space="preserve">    from . import main</t>
   </si>
   <si>
-    <t>https://github.com/daisuke-sz/extra-addons</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ImportError: cannot import name main</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1252,6 +1213,33 @@
   </si>
   <si>
     <t>sudo chown -R odoo  /mnt/extra-addons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*if error </t>
+  </si>
+  <si>
+    <t>pip install --upgrade pip</t>
+  </si>
+  <si>
+    <t>&gt; do this</t>
+  </si>
+  <si>
+    <t>&gt; run again</t>
+  </si>
+  <si>
+    <t>https://github.com/AllianceWebcoop/extra_addons</t>
+  </si>
+  <si>
+    <t>https://github.com/AllianceWebcoop/webcoop_source</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>localfolds</t>
+  </si>
+  <si>
+    <t>Login and Go to apps install the Following apps:</t>
   </si>
 </sst>
 </file>
@@ -1492,9 +1480,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1534,6 +1519,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1558,13 +1546,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>417</xdr:row>
+      <xdr:row>419</xdr:row>
       <xdr:rowOff>162925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323112</xdr:colOff>
-      <xdr:row>426</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>95006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1602,13 +1590,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>126546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>25854</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>112939</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1858,7 +1846,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1962,13 +1950,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2258,7 +2246,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276320</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2438304" cy="2343150"/>
@@ -2314,7 +2302,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>161992</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3487511" cy="2706392"/>
@@ -2370,7 +2358,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400774</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3171732" cy="2690898"/>
@@ -2409,7 +2397,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>47415</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3020080" cy="2542813"/>
@@ -2448,7 +2436,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>67218</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4894975" cy="3985663"/>
@@ -2487,13 +2475,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2548,13 +2536,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2609,13 +2597,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2704,13 +2692,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2777,13 +2765,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>92563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2838,13 +2826,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2899,13 +2887,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>96537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>351896</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>151807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2943,13 +2931,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>403</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3004,13 +2992,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>87707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>237237</xdr:colOff>
-      <xdr:row>410</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>18593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3048,13 +3036,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3109,13 +3097,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>11602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>393</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>33103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3170,13 +3158,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>170040</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>383</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>246240</xdr:colOff>
-      <xdr:row>382</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3236,13 +3224,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>455790</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>531990</xdr:colOff>
-      <xdr:row>384</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3302,13 +3290,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>429</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>64514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>441</xdr:row>
       <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3363,13 +3351,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>426</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>426</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3424,13 +3412,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>441</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3485,13 +3473,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>72183</xdr:colOff>
-      <xdr:row>441</xdr:row>
+      <xdr:row>443</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409046</xdr:colOff>
-      <xdr:row>457</xdr:row>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>104182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3529,13 +3517,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>449</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>449</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3590,13 +3578,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>457</xdr:row>
+      <xdr:row>459</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3651,13 +3639,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>460</xdr:row>
+      <xdr:row>462</xdr:row>
       <xdr:rowOff>7306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>75243</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>47061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3695,13 +3683,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>465</xdr:row>
+      <xdr:row>467</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>467</xdr:row>
+      <xdr:row>469</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3756,13 +3744,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>485</xdr:row>
       <xdr:rowOff>69277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>493</xdr:row>
       <xdr:rowOff>162445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3800,13 +3788,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>487</xdr:row>
+      <xdr:row>489</xdr:row>
       <xdr:rowOff>7604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>380150</xdr:colOff>
-      <xdr:row>494</xdr:row>
+      <xdr:row>496</xdr:row>
       <xdr:rowOff>47407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3844,13 +3832,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>500</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>31575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>507</xdr:row>
+      <xdr:row>509</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3905,13 +3893,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>234536</xdr:colOff>
-      <xdr:row>499</xdr:row>
+      <xdr:row>501</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>507</xdr:row>
+      <xdr:row>509</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3966,13 +3954,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>508</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4027,13 +4015,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4088,13 +4076,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>508</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4149,13 +4137,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>472</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>474</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4210,13 +4198,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>513</xdr:row>
       <xdr:rowOff>110442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>627697</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>56564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4254,13 +4242,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>506</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4314,13 +4302,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>531</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4375,13 +4363,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>533</xdr:row>
+      <xdr:row>535</xdr:row>
       <xdr:rowOff>63796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>545</xdr:row>
+      <xdr:row>547</xdr:row>
       <xdr:rowOff>35692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4428,6 +4416,329 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454268</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>359020</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="線吹き出し 1 (枠付き) 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474EE987-E6FC-428A-A8C6-4FDE103974D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6337787" y="42386250"/>
+          <a:ext cx="5986098" cy="344365"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59176"/>
+            <a:gd name="adj2" fmla="val -403"/>
+            <a:gd name="adj3" fmla="val 245624"/>
+            <a:gd name="adj4" fmla="val -28714"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Git Source: https://github.com/AllianceWebcoop/webcoop_source </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373673</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542193</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>197827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="線吹き出し 1 (枠付き) 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F902F554-A207-4A18-B66D-8F1F58A44C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257192" y="43463308"/>
+          <a:ext cx="1384789" cy="344365"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59176"/>
+            <a:gd name="adj2" fmla="val -403"/>
+            <a:gd name="adj3" fmla="val 217964"/>
+            <a:gd name="adj4" fmla="val -110195"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Git Credentials</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168520</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="線吹き出し 1 (枠付き) 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63B56A5-FD88-4076-B9A3-5CCDD7A9F1CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9532327" y="48606808"/>
+          <a:ext cx="1384789" cy="344365"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59176"/>
+            <a:gd name="adj2" fmla="val -403"/>
+            <a:gd name="adj3" fmla="val 122219"/>
+            <a:gd name="adj4" fmla="val -144587"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Local folder</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>218531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>290195</xdr:colOff>
+      <xdr:row>580</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E4AA8F-A034-47FF-AC09-1DBA604A7E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1245578" y="127868185"/>
+          <a:ext cx="7968809" cy="4053065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4698,11 +5009,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L574"/>
+  <dimension ref="A2:L576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" t="s">
@@ -5095,357 +5409,362 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="18" customHeight="1">
+    <row r="113" spans="2:8" ht="18" customHeight="1">
       <c r="C113" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="18" customHeight="1">
+    <row r="114" spans="2:8" ht="18" customHeight="1">
       <c r="C114" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="18" customHeight="1">
+    <row r="115" spans="2:8" ht="18" customHeight="1">
       <c r="C115" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H115" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="18" customHeight="1">
+      <c r="E116" t="s">
+        <v>77</v>
+      </c>
+      <c r="H116" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="18" customHeight="1">
+      <c r="C117" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="18" customHeight="1">
-      <c r="B117" t="s">
+    <row r="119" spans="2:8" ht="18" customHeight="1">
+      <c r="B119" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="18" customHeight="1">
-      <c r="C119" s="4" t="s">
+    <row r="121" spans="2:8" ht="18" customHeight="1">
+      <c r="C121" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="18" customHeight="1">
-      <c r="C120" s="4" t="s">
+    <row r="122" spans="2:8" ht="18" customHeight="1">
+      <c r="C122" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="18" customHeight="1">
-      <c r="C122" s="5" t="s">
+    <row r="124" spans="2:8" ht="18" customHeight="1">
+      <c r="C124" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="18" customHeight="1">
-      <c r="C123" s="5" t="s">
+    <row r="125" spans="2:8" ht="18" customHeight="1">
+      <c r="C125" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="18" customHeight="1">
-      <c r="C125" t="s">
+    <row r="127" spans="2:8" ht="18" customHeight="1">
+      <c r="C127" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="18" customHeight="1">
-      <c r="C126" t="s">
+    <row r="128" spans="2:8" ht="18" customHeight="1">
+      <c r="C128" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="18" customHeight="1">
-      <c r="C127" t="s">
+    <row r="129" spans="2:3" ht="18" customHeight="1">
+      <c r="C129" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="18" customHeight="1">
-      <c r="C128" s="6" t="s">
+    <row r="130" spans="2:3" ht="18" customHeight="1">
+      <c r="C130" s="6" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" ht="18" customHeight="1">
-      <c r="C130" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" ht="18" customHeight="1">
-      <c r="C131" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="18" customHeight="1">
       <c r="C132" t="s">
-        <v>224</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="18" customHeight="1">
+      <c r="C133" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="18" customHeight="1">
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="18" customHeight="1">
+      <c r="B136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="18" customHeight="1">
-      <c r="C135" t="s">
+    <row r="137" spans="2:3" ht="18" customHeight="1">
+      <c r="C137" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" ht="18" customHeight="1">
-      <c r="C136" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="18" customHeight="1">
       <c r="C138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="18" customHeight="1">
+      <c r="C140" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="18" customHeight="1">
-      <c r="C141" t="s">
+    <row r="143" spans="2:3" ht="18" customHeight="1">
+      <c r="C143" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="18" customHeight="1">
-      <c r="C142" t="s">
+    <row r="144" spans="2:3" ht="18" customHeight="1">
+      <c r="C144" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18" customHeight="1">
-      <c r="A145" t="s">
+    <row r="147" spans="1:7" ht="18" customHeight="1">
+      <c r="A147" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="18" customHeight="1">
-      <c r="B146" t="s">
+    <row r="148" spans="1:7" ht="18" customHeight="1">
+      <c r="B148" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="18" customHeight="1">
-      <c r="C147" t="s">
+    <row r="149" spans="1:7" ht="18" customHeight="1">
+      <c r="C149" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="18" customHeight="1">
-      <c r="C148" t="s">
+    <row r="150" spans="1:7" ht="18" customHeight="1">
+      <c r="C150" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="18" customHeight="1">
-      <c r="B151" t="s">
+    <row r="153" spans="1:7" ht="18" customHeight="1">
+      <c r="B153" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="18" customHeight="1">
-      <c r="C152" t="s">
+    <row r="154" spans="1:7" ht="18" customHeight="1">
+      <c r="C154" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="18" customHeight="1">
-      <c r="D153" t="s">
+    <row r="155" spans="1:7" ht="18" customHeight="1">
+      <c r="D155" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="18" customHeight="1">
-      <c r="D154" t="s">
+    <row r="156" spans="1:7" ht="18" customHeight="1">
+      <c r="D156" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="18" customHeight="1">
-      <c r="C155" t="s">
+    <row r="157" spans="1:7" ht="18" customHeight="1">
+      <c r="C157" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18" customHeight="1">
-      <c r="D156" t="s">
+    <row r="158" spans="1:7" ht="18" customHeight="1">
+      <c r="D158" t="s">
         <v>102</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G158" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="18" customHeight="1">
-      <c r="G157" t="s">
+    <row r="159" spans="1:7" ht="18" customHeight="1">
+      <c r="G159" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="18" customHeight="1">
-      <c r="D158" t="s">
+    <row r="160" spans="1:7" ht="18" customHeight="1">
+      <c r="D160" t="s">
         <v>105</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G160" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="18" customHeight="1">
-      <c r="D159" t="s">
+    <row r="161" spans="1:11" ht="18" customHeight="1">
+      <c r="D161" t="s">
         <v>107</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K161" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="18" customHeight="1">
-      <c r="D160" t="s">
+    <row r="162" spans="1:11" ht="18" customHeight="1">
+      <c r="D162" t="s">
         <v>109</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G162" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="18" customHeight="1">
-      <c r="D161" t="s">
+    <row r="163" spans="1:11" ht="18" customHeight="1">
+      <c r="D163" t="s">
         <v>111</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G163" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="18" customHeight="1">
-      <c r="A163" t="s">
+    <row r="165" spans="1:11" ht="18" customHeight="1">
+      <c r="A165" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="18" customHeight="1">
-      <c r="B164" t="s">
+    <row r="166" spans="1:11" ht="18" customHeight="1">
+      <c r="B166" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="18" customHeight="1">
-      <c r="C165" t="s">
+    <row r="167" spans="1:11" ht="18" customHeight="1">
+      <c r="C167" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="18" customHeight="1">
-      <c r="C166" s="20" t="s">
+    <row r="168" spans="1:11" ht="18" customHeight="1">
+      <c r="C168" s="19"/>
+    </row>
+    <row r="169" spans="1:11" ht="18" customHeight="1">
+      <c r="C169" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="18" customHeight="1">
+      <c r="B171" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="18" customHeight="1">
-      <c r="C167" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="18" customHeight="1">
-      <c r="B169" t="s">
+    <row r="172" spans="1:11" ht="18" customHeight="1">
+      <c r="C172" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="18" customHeight="1">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="18" customHeight="1">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:11" ht="18" customHeight="1">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:11" ht="18" customHeight="1">
+      <c r="B176" s="1"/>
+      <c r="C176" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="18" customHeight="1">
-      <c r="C170" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="18" customHeight="1">
-      <c r="B171" s="1"/>
-      <c r="C171" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="18" customHeight="1">
-      <c r="B172" s="1"/>
-      <c r="C172" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="18" customHeight="1">
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:7" ht="18" customHeight="1">
-      <c r="B174" s="1"/>
-      <c r="C174" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="18" customHeight="1">
-      <c r="B175" s="1"/>
-      <c r="D175" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="18" customHeight="1">
-      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="2:12" ht="18" customHeight="1">
       <c r="B177" s="1"/>
-      <c r="C177" t="s">
-        <v>123</v>
+      <c r="D177" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="178" spans="2:12" ht="18" customHeight="1">
       <c r="B178" s="1"/>
-      <c r="D178" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="179" spans="2:12" ht="18" customHeight="1">
       <c r="B179" s="1"/>
-      <c r="D179" t="s">
-        <v>125</v>
+      <c r="C179" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="2:12" ht="18" customHeight="1">
       <c r="B180" s="1"/>
-      <c r="E180" t="s">
-        <v>126</v>
+      <c r="D180" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="181" spans="2:12" ht="18" customHeight="1">
       <c r="B181" s="1"/>
       <c r="D181" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="182" spans="2:12" ht="18" customHeight="1">
       <c r="B182" s="1"/>
-      <c r="E182" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K182" s="8"/>
-      <c r="L182" s="9"/>
+      <c r="E182" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="183" spans="2:12" ht="18" customHeight="1">
       <c r="B183" s="1"/>
-      <c r="E183" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K183" s="11"/>
-      <c r="L183" s="12"/>
+      <c r="D183" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="184" spans="2:12" ht="18" customHeight="1">
       <c r="B184" s="1"/>
-      <c r="E184" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
-      <c r="J184" s="11"/>
-      <c r="K184" s="11"/>
-      <c r="L184" s="12"/>
+      <c r="E184" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K184" s="7"/>
+      <c r="L184" s="8"/>
     </row>
     <row r="185" spans="2:12" ht="18" customHeight="1">
       <c r="B185" s="1"/>
-      <c r="E185" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="16"/>
+      <c r="E185" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K185" s="10"/>
+      <c r="L185" s="11"/>
     </row>
     <row r="186" spans="2:12" ht="18" customHeight="1">
       <c r="B186" s="1"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10"/>
+      <c r="L186" s="11"/>
     </row>
     <row r="187" spans="2:12" ht="18" customHeight="1">
       <c r="B187" s="1"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14"/>
+      <c r="L187" s="15"/>
     </row>
     <row r="188" spans="2:12" ht="18" customHeight="1">
       <c r="B188" s="1"/>
@@ -5480,327 +5799,327 @@
     <row r="198" spans="2:3" ht="18" customHeight="1">
       <c r="B198" s="1"/>
     </row>
-    <row r="202" spans="2:3" ht="18" customHeight="1">
-      <c r="B202" t="s">
-        <v>134</v>
-      </c>
+    <row r="199" spans="2:3" ht="18" customHeight="1">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:3" ht="18" customHeight="1">
+      <c r="B200" s="1"/>
     </row>
     <row r="204" spans="2:3" ht="18" customHeight="1">
-      <c r="C204" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" ht="18" customHeight="1">
-      <c r="C205" t="s">
-        <v>136</v>
+      <c r="B204" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="18" customHeight="1">
       <c r="C206" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="18" customHeight="1">
       <c r="C207" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="18" customHeight="1">
       <c r="C208" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="209" spans="3:4" ht="18" customHeight="1">
       <c r="C209" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="210" spans="3:4" ht="18" customHeight="1">
       <c r="C210" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="211" spans="3:4" ht="18" customHeight="1">
-      <c r="D211" t="s">
-        <v>142</v>
+      <c r="C211" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="212" spans="3:4" ht="18" customHeight="1">
       <c r="C212" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" ht="18" customHeight="1">
-      <c r="B225" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4" ht="18" customHeight="1">
-      <c r="C226" t="s">
-        <v>145</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" ht="18" customHeight="1">
+      <c r="D213" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" ht="18" customHeight="1">
+      <c r="C214" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="227" spans="2:4" ht="18" customHeight="1">
-      <c r="D227" t="s">
-        <v>146</v>
+      <c r="B227" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="228" spans="2:4" ht="18" customHeight="1">
-      <c r="D228" t="s">
-        <v>147</v>
+      <c r="C228" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="229" spans="2:4" ht="18" customHeight="1">
       <c r="D229" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="246" spans="3:4" ht="18" customHeight="1">
-      <c r="C246" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="247" spans="3:4" ht="18" customHeight="1">
-      <c r="D247" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="264" spans="3:3" ht="18" customHeight="1">
-      <c r="C264" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5" ht="18" customHeight="1">
-      <c r="B289" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" ht="18" customHeight="1">
+      <c r="D230" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" ht="18" customHeight="1">
+      <c r="D231" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" ht="18" customHeight="1">
+      <c r="C248" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" ht="18" customHeight="1">
+      <c r="D249" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" ht="18" customHeight="1">
+      <c r="C266" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="291" spans="2:5" ht="18" customHeight="1">
-      <c r="C291" t="s">
-        <v>153</v>
+      <c r="B291" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="293" spans="2:5" ht="18" customHeight="1">
       <c r="C293" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="294" spans="2:5" ht="18" customHeight="1">
-      <c r="D294" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" ht="18" customHeight="1">
+      <c r="C295" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="296" spans="2:5" ht="18" customHeight="1">
       <c r="D296" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="298" spans="2:5" ht="18" customHeight="1">
       <c r="D298" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" ht="18" customHeight="1">
+      <c r="D300" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" ht="18" customHeight="1">
+      <c r="E302" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" ht="18" customHeight="1">
+      <c r="E303" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" ht="18" customHeight="1">
+      <c r="E304" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" ht="18" customHeight="1">
+      <c r="E305" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" ht="18" customHeight="1">
+      <c r="E306" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" ht="18" customHeight="1">
+      <c r="E307" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" ht="18" customHeight="1">
+      <c r="E308" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" ht="18" customHeight="1">
+      <c r="E309" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="18" customHeight="1">
-      <c r="E300" s="17" t="s">
+    <row r="310" spans="5:5" ht="18" customHeight="1">
+      <c r="E310" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="18" customHeight="1">
-      <c r="E301" s="17" t="s">
+    <row r="311" spans="5:5" ht="18" customHeight="1">
+      <c r="E311" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="18" customHeight="1">
-      <c r="E302" s="17" t="s">
+    <row r="312" spans="5:5" ht="18" customHeight="1">
+      <c r="E312" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="18" customHeight="1">
-      <c r="E303" s="17" t="s">
+    <row r="313" spans="5:5" ht="18" customHeight="1">
+      <c r="E313" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="18" customHeight="1">
-      <c r="E304" s="17" t="s">
+    <row r="314" spans="5:5" ht="18" customHeight="1">
+      <c r="E314" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="305" spans="5:5" ht="18" customHeight="1">
-      <c r="E305" s="17" t="s">
+    <row r="315" spans="5:5" ht="18" customHeight="1">
+      <c r="E315" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="306" spans="5:5" ht="18" customHeight="1">
-      <c r="E306" s="17" t="s">
+    <row r="316" spans="5:5" ht="18" customHeight="1">
+      <c r="E316" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="307" spans="5:5" ht="18" customHeight="1">
-      <c r="E307" s="17" t="s">
+    <row r="317" spans="5:5" ht="18" customHeight="1">
+      <c r="E317" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="308" spans="5:5" ht="18" customHeight="1">
-      <c r="E308" s="17" t="s">
+    <row r="318" spans="5:5" ht="18" customHeight="1">
+      <c r="E318" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="309" spans="5:5" ht="18" customHeight="1">
-      <c r="E309" s="17" t="s">
+    <row r="319" spans="5:5" ht="18" customHeight="1">
+      <c r="E319" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="310" spans="5:5" ht="18" customHeight="1">
-      <c r="E310" s="17" t="s">
+    <row r="320" spans="5:5" ht="18" customHeight="1">
+      <c r="E320" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="311" spans="5:5" ht="18" customHeight="1">
-      <c r="E311" s="17" t="s">
+    <row r="321" spans="3:5" ht="18" customHeight="1">
+      <c r="E321" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="312" spans="5:5" ht="18" customHeight="1">
-      <c r="E312" s="17" t="s">
+    <row r="322" spans="3:5" ht="18" customHeight="1">
+      <c r="E322" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="313" spans="5:5" ht="18" customHeight="1">
-      <c r="E313" s="17" t="s">
+    <row r="323" spans="3:5" ht="18" customHeight="1">
+      <c r="E323" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="314" spans="5:5" ht="18" customHeight="1">
-      <c r="E314" s="17" t="s">
+    <row r="324" spans="3:5" ht="18" customHeight="1">
+      <c r="E324" s="16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="315" spans="5:5" ht="18" customHeight="1">
-      <c r="E315" s="17" t="s">
+    <row r="326" spans="3:5" ht="18" customHeight="1">
+      <c r="C326" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="316" spans="5:5" ht="18" customHeight="1">
-      <c r="E316" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="317" spans="5:5" ht="18" customHeight="1">
-      <c r="E317" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="318" spans="5:5" ht="18" customHeight="1">
-      <c r="E318" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="319" spans="5:5" ht="18" customHeight="1">
-      <c r="E319" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="320" spans="5:5" ht="18" customHeight="1">
-      <c r="E320" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="321" spans="3:5" ht="18" customHeight="1">
-      <c r="E321" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="322" spans="3:5" ht="18" customHeight="1">
-      <c r="E322" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="324" spans="3:5" ht="18" customHeight="1">
-      <c r="C324" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="326" spans="3:5" ht="18" customHeight="1">
-      <c r="D326" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="328" spans="3:5" ht="18" customHeight="1">
       <c r="D328" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="330" spans="3:5" ht="18" customHeight="1">
       <c r="D330" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="332" spans="3:5" ht="18" customHeight="1">
-      <c r="E332" s="17" t="s">
+      <c r="D332" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="334" spans="3:5" ht="18" customHeight="1">
+      <c r="E334" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="335" spans="3:5" ht="18" customHeight="1">
+      <c r="E335" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="336" spans="3:5" ht="18" customHeight="1">
+      <c r="E336" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" ht="18" customHeight="1">
+      <c r="E337" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" ht="18" customHeight="1">
+      <c r="E338" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" ht="18" customHeight="1">
+      <c r="E339" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" ht="18" customHeight="1">
+      <c r="E340" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" ht="18" customHeight="1">
+      <c r="B342" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5" ht="18" customHeight="1">
+      <c r="C344" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="333" spans="3:5" ht="18" customHeight="1">
-      <c r="E333" s="17" t="s">
+    <row r="345" spans="2:5" ht="18" customHeight="1">
+      <c r="D345" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="334" spans="3:5" ht="18" customHeight="1">
-      <c r="E334" s="17" t="s">
+    <row r="346" spans="2:5" ht="18" customHeight="1">
+      <c r="D346" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="335" spans="3:5" ht="18" customHeight="1">
-      <c r="E335" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="336" spans="3:5" ht="18" customHeight="1">
-      <c r="E336" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="337" spans="2:5" ht="18" customHeight="1">
-      <c r="E337" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="338" spans="2:5" ht="18" customHeight="1">
-      <c r="E338" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="340" spans="2:5" ht="18" customHeight="1">
-      <c r="B340" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="342" spans="2:5" ht="18" customHeight="1">
-      <c r="C342" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="343" spans="2:5" ht="18" customHeight="1">
-      <c r="D343" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="344" spans="2:5" ht="18" customHeight="1">
-      <c r="D344" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="345" spans="2:5" ht="18" customHeight="1">
-      <c r="B345" s="1"/>
-      <c r="D345" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="346" spans="2:5" ht="18" customHeight="1">
-      <c r="B346" s="1"/>
     </row>
     <row r="347" spans="2:5" ht="18" customHeight="1">
       <c r="B347" s="1"/>
+      <c r="D347" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="348" spans="2:5" ht="18" customHeight="1">
       <c r="B348" s="1"/>
@@ -5876,42 +6195,42 @@
     </row>
     <row r="372" spans="2:4" ht="18" customHeight="1">
       <c r="B372" s="1"/>
-      <c r="C372" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="373" spans="2:4" ht="18" customHeight="1">
       <c r="B373" s="1"/>
     </row>
     <row r="374" spans="2:4" ht="18" customHeight="1">
       <c r="B374" s="1"/>
-      <c r="D374" t="s">
-        <v>197</v>
+      <c r="C374" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="375" spans="2:4" ht="18" customHeight="1">
       <c r="B375" s="1"/>
-      <c r="D375" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="376" spans="2:4" ht="18" customHeight="1">
       <c r="B376" s="1"/>
       <c r="D376" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="377" spans="2:4" ht="18" customHeight="1">
       <c r="B377" s="1"/>
       <c r="D377" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="378" spans="2:4" ht="18" customHeight="1">
       <c r="B378" s="1"/>
+      <c r="D378" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="379" spans="2:4" ht="18" customHeight="1">
       <c r="B379" s="1"/>
+      <c r="D379" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="380" spans="2:4" ht="18" customHeight="1">
       <c r="B380" s="1"/>
@@ -5960,15 +6279,15 @@
     </row>
     <row r="395" spans="2:4" ht="18" customHeight="1">
       <c r="B395" s="1"/>
-      <c r="D395" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="396" spans="2:4" ht="18" customHeight="1">
       <c r="B396" s="1"/>
     </row>
     <row r="397" spans="2:4" ht="18" customHeight="1">
       <c r="B397" s="1"/>
+      <c r="D397" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="398" spans="2:4" ht="18" customHeight="1">
       <c r="B398" s="1"/>
@@ -5979,74 +6298,74 @@
     <row r="400" spans="2:4" ht="18" customHeight="1">
       <c r="B400" s="1"/>
     </row>
-    <row r="401" spans="2:5" ht="18" customHeight="1">
+    <row r="401" spans="2:4" ht="18" customHeight="1">
       <c r="B401" s="1"/>
     </row>
-    <row r="402" spans="2:5" ht="18" customHeight="1">
+    <row r="402" spans="2:4" ht="18" customHeight="1">
       <c r="B402" s="1"/>
     </row>
-    <row r="403" spans="2:5" ht="18" customHeight="1">
+    <row r="403" spans="2:4" ht="18" customHeight="1">
       <c r="B403" s="1"/>
     </row>
-    <row r="404" spans="2:5" ht="18" customHeight="1">
+    <row r="404" spans="2:4" ht="18" customHeight="1">
       <c r="B404" s="1"/>
     </row>
-    <row r="405" spans="2:5" ht="18" customHeight="1">
+    <row r="405" spans="2:4" ht="18" customHeight="1">
       <c r="B405" s="1"/>
     </row>
-    <row r="406" spans="2:5" ht="18" customHeight="1">
+    <row r="406" spans="2:4" ht="18" customHeight="1">
       <c r="B406" s="1"/>
     </row>
-    <row r="407" spans="2:5" ht="18" customHeight="1">
+    <row r="407" spans="2:4" ht="18" customHeight="1">
       <c r="B407" s="1"/>
     </row>
-    <row r="408" spans="2:5" ht="18" customHeight="1">
+    <row r="408" spans="2:4" ht="18" customHeight="1">
       <c r="B408" s="1"/>
     </row>
-    <row r="409" spans="2:5" ht="18" customHeight="1">
+    <row r="409" spans="2:4" ht="18" customHeight="1">
       <c r="B409" s="1"/>
     </row>
-    <row r="410" spans="2:5" ht="18" customHeight="1">
+    <row r="410" spans="2:4" ht="18" customHeight="1">
       <c r="B410" s="1"/>
     </row>
-    <row r="411" spans="2:5" ht="18" customHeight="1">
+    <row r="411" spans="2:4" ht="18" customHeight="1">
       <c r="B411" s="1"/>
     </row>
-    <row r="412" spans="2:5" ht="18" customHeight="1">
+    <row r="412" spans="2:4" ht="18" customHeight="1">
       <c r="B412" s="1"/>
     </row>
-    <row r="413" spans="2:5" ht="18" customHeight="1">
+    <row r="413" spans="2:4" ht="18" customHeight="1">
       <c r="B413" s="1"/>
     </row>
-    <row r="414" spans="2:5" ht="18" customHeight="1">
+    <row r="414" spans="2:4" ht="18" customHeight="1">
       <c r="B414" s="1"/>
-      <c r="D414" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="415" spans="2:5" ht="18" customHeight="1">
+    </row>
+    <row r="415" spans="2:4" ht="18" customHeight="1">
       <c r="B415" s="1"/>
-      <c r="E415" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="416" spans="2:5" ht="18" customHeight="1">
+    </row>
+    <row r="416" spans="2:4" ht="18" customHeight="1">
       <c r="B416" s="1"/>
-      <c r="E416" t="s">
-        <v>204</v>
+      <c r="D416" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="417" spans="2:5" ht="18" customHeight="1">
       <c r="B417" s="1"/>
       <c r="E417" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="418" spans="2:5" ht="18" customHeight="1">
       <c r="B418" s="1"/>
+      <c r="E418" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="419" spans="2:5" ht="18" customHeight="1">
       <c r="B419" s="1"/>
+      <c r="E419" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="420" spans="2:5" ht="18" customHeight="1">
       <c r="B420" s="1"/>
@@ -6057,123 +6376,128 @@
     <row r="422" spans="2:5" ht="18" customHeight="1">
       <c r="B422" s="1"/>
     </row>
-    <row r="429" spans="2:5" ht="18" customHeight="1">
-      <c r="D429" t="s">
+    <row r="423" spans="2:5" ht="18" customHeight="1">
+      <c r="B423" s="1"/>
+    </row>
+    <row r="424" spans="2:5" ht="18" customHeight="1">
+      <c r="B424" s="1"/>
+    </row>
+    <row r="431" spans="2:5" ht="18" customHeight="1">
+      <c r="D431" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4" ht="18" customHeight="1">
+      <c r="D444" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="462" spans="4:4" ht="18" customHeight="1">
+      <c r="D462" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="18" customHeight="1">
+      <c r="A480" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" ht="18" customHeight="1">
+      <c r="B482" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" ht="18" customHeight="1">
+      <c r="C484" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" ht="18" customHeight="1">
+      <c r="C485" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" ht="18" customHeight="1">
+      <c r="B500" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" ht="18" customHeight="1">
+      <c r="B513" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="442" spans="4:4" ht="18" customHeight="1">
-      <c r="D442" t="s">
+    <row r="535" spans="2:2" ht="18" customHeight="1">
+      <c r="B535" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="460" spans="4:4" ht="18" customHeight="1">
-      <c r="D460" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="18" customHeight="1">
-      <c r="A478" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="18" customHeight="1">
-      <c r="B480" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="482" spans="3:3" ht="18" customHeight="1">
-      <c r="C482" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="483" spans="3:3" ht="18" customHeight="1">
-      <c r="C483" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="498" spans="2:2" ht="18" customHeight="1">
-      <c r="B498" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="511" spans="2:2" ht="18" customHeight="1">
-      <c r="B511" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="533" spans="2:2" ht="18" customHeight="1">
-      <c r="B533" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="548" spans="4:12" ht="18" customHeight="1">
-      <c r="D548" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="550" spans="4:12" ht="18" customHeight="1">
       <c r="D550" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="552" spans="4:12" ht="18" customHeight="1">
-      <c r="D552" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="E552" s="8"/>
-      <c r="F552" s="8"/>
-      <c r="G552" s="8"/>
-      <c r="H552" s="8"/>
-      <c r="I552" s="8"/>
-      <c r="J552" s="8"/>
-      <c r="K552" s="8"/>
-      <c r="L552" s="9"/>
-    </row>
-    <row r="553" spans="4:12" ht="18" customHeight="1">
-      <c r="D553" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E553" s="11"/>
-      <c r="F553" s="11"/>
-      <c r="G553" s="11"/>
-      <c r="H553" s="11"/>
-      <c r="I553" s="11"/>
-      <c r="J553" s="11"/>
-      <c r="K553" s="11"/>
-      <c r="L553" s="12"/>
+      <c r="D552" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="554" spans="4:12" ht="18" customHeight="1">
-      <c r="D554" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E554" s="11"/>
-      <c r="F554" s="11"/>
-      <c r="G554" s="11"/>
-      <c r="H554" s="11"/>
-      <c r="I554" s="11"/>
-      <c r="J554" s="11"/>
-      <c r="K554" s="11"/>
-      <c r="L554" s="12"/>
+      <c r="D554" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E554" s="7"/>
+      <c r="F554" s="7"/>
+      <c r="G554" s="7"/>
+      <c r="H554" s="7"/>
+      <c r="I554" s="7"/>
+      <c r="J554" s="7"/>
+      <c r="K554" s="7"/>
+      <c r="L554" s="8"/>
     </row>
     <row r="555" spans="4:12" ht="18" customHeight="1">
-      <c r="D555" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E555" s="15"/>
-      <c r="F555" s="15"/>
-      <c r="G555" s="15"/>
-      <c r="H555" s="15"/>
-      <c r="I555" s="15"/>
-      <c r="J555" s="15"/>
-      <c r="K555" s="15"/>
-      <c r="L555" s="16"/>
+      <c r="D555" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E555" s="10"/>
+      <c r="F555" s="10"/>
+      <c r="G555" s="10"/>
+      <c r="H555" s="10"/>
+      <c r="I555" s="10"/>
+      <c r="J555" s="10"/>
+      <c r="K555" s="10"/>
+      <c r="L555" s="11"/>
+    </row>
+    <row r="556" spans="4:12" ht="18" customHeight="1">
+      <c r="D556" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E556" s="10"/>
+      <c r="F556" s="10"/>
+      <c r="G556" s="10"/>
+      <c r="H556" s="10"/>
+      <c r="I556" s="10"/>
+      <c r="J556" s="10"/>
+      <c r="K556" s="10"/>
+      <c r="L556" s="11"/>
+    </row>
+    <row r="557" spans="4:12" ht="18" customHeight="1">
+      <c r="D557" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E557" s="14"/>
+      <c r="F557" s="14"/>
+      <c r="G557" s="14"/>
+      <c r="H557" s="14"/>
+      <c r="I557" s="14"/>
+      <c r="J557" s="14"/>
+      <c r="K557" s="14"/>
+      <c r="L557" s="15"/>
     </row>
     <row r="562" spans="2:2" ht="18" customHeight="1">
-      <c r="B562" s="1"/>
-    </row>
-    <row r="563" spans="2:2" ht="18" customHeight="1">
-      <c r="B563" s="1"/>
+      <c r="B562" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="564" spans="2:2" ht="18" customHeight="1">
       <c r="B564" s="1"/>
@@ -6207,19 +6531,22 @@
     </row>
     <row r="574" spans="2:2" ht="18" customHeight="1">
       <c r="B574" s="1"/>
+    </row>
+    <row r="575" spans="2:2" ht="18" customHeight="1">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="2:2" ht="18" customHeight="1">
+      <c r="B576" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C171" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C172" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C166" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E183" r:id="rId5" display="https://es.agricom.co.jp/suzukid/test_dev.git" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C167" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C169" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E184" r:id="rId3" xr:uid="{1763BE1E-D8CA-4311-8518-2B570BC840D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>